--- a/medicine/Mort/Pierre_Tombal/Pierre_Tombal.xlsx
+++ b/medicine/Mort/Pierre_Tombal/Pierre_Tombal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pierre Tombal est le titre d'une série de bandes dessinées d'humour noir, lancée au début des années 1980 par le dessinateur Marc Hardy et le scénariste Raoul Cauvin. La première planche paraît dans le Journal de Spirou en 1983. Les histoires qui y sont relatées sont courtes (une à deux pages) et articulées autour de Pierre Tombal, un fossoyeur.
-En 2019, l'éditeur Dupuis décide de mettre fin à la série Pierre Tombal, au grand regret de Raoul Cauvin. Les ventes restent honorables mais sont en baisse, alors même que Dupuis préfère privilégier les grands classiques plus anciens et les nouveautés. Deux tomes finaux de Pierre Tombal sont prévus avant l'arrêt de la série[1].
+En 2019, l'éditeur Dupuis décide de mettre fin à la série Pierre Tombal, au grand regret de Raoul Cauvin. Les ventes restent honorables mais sont en baisse, alors même que Dupuis préfère privilégier les grands classiques plus anciens et les nouveautés. Deux tomes finaux de Pierre Tombal sont prévus avant l'arrêt de la série.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fossoyeur de son état, Pierre Tombal creuse les tombes du cimetière pour enterrer les défunts. Ceux-ci, représentés par des squelettes, continuent d'évoluer, et c'est à Pierre Tombal de s'occuper de régler leurs différents problèmes. La Mort fait aussi régulièrement son apparition dans les gags, munie de sa faux, mais aussi son ennemie la Vie, qui se présente comme une gracieuse jeune fille répandant des fleurs sur son passage.
 Souvent, Pierre se rend au bistro du coin, où il peut discuter et jouer aux cartes avec ses collègues : son copain marin, qui pratique les immersions, et l'entrepreneur de pompes funèbres, qui se charge des incinérations. Un quatrième personnage s'ajoute alors à leur table pour jouer et écouter leurs histoires. Derrière son comptoir, Anita (ou Julie dans le Tome 14) fait continuellement preuve d'une patience à toute épreuve devant les trois conteurs.
@@ -545,7 +559,9 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les albums de Pierre Tombal sont dessinés par Marc Hardy, scénarisés par Raoul Cauvin et paraissent aux éditions Dupuis.
 1 : Les 44 premiers trous, 1986  (ISBN 2-8001-1323-5, 2-8001-1323-5 et 2-8001-1323-5).
@@ -576,8 +592,8 @@
 25 : Mise en orbite, 2008  (ISBN 2-8001-3203-5)
 26 : Pompes funèbres, 2009  (ISBN 9782800144658).
 27 : Entre la vie et la mort, 2011  (ISBN 9782800147550).
-28 : L'amour est dans le cimetière, 2012[2]  (ISBN 9782800151557).
-29 : Des os et des bas, 5 avril 2013[3]  (ISBN 9782800152196).
+28 : L'amour est dans le cimetière, 2012  (ISBN 9782800151557).
+29 : Des os et des bas, 5 avril 2013  (ISBN 9782800152196).
 30 : Questions de vie ou de mort, 2014  (ISBN 9782800159652).
 31 : Peine de mort, 2015  (ISBN 9782800162591).
 32 : Fin de bail au cimetière, 2016  (ISBN 9782800165868).
